--- a/data/trans_camb/P5_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 15,05</t>
+          <t>-19,35; 12,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 10,41</t>
+          <t>-8,68; 16,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 9,57</t>
+          <t>-8,8; 10,77</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 32,08</t>
+          <t>-34,79; 31,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 23,72</t>
+          <t>-15,22; 39,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 21,43</t>
+          <t>-16,81; 24,58</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 8,0</t>
+          <t>-9,05; 9,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 6,54</t>
+          <t>-7,59; 8,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 5,36</t>
+          <t>-5,0; 6,61</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 16,33</t>
+          <t>-15,95; 20,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 15,48</t>
+          <t>-14,79; 19,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 11,76</t>
+          <t>-9,63; 14,55</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 7,4</t>
+          <t>-7,4; 11,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 2,41</t>
+          <t>-8,01; 10,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,99</t>
+          <t>-5,19; 7,54</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 17,77</t>
+          <t>-15,83; 32,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 5,83</t>
+          <t>-17,68; 28,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 7,04</t>
+          <t>-11,76; 19,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,9</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 5,63</t>
+          <t>-6,22; 6,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,85</t>
+          <t>-7,46; 3,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 3,23</t>
+          <t>-5,04; 3,44</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>-1,85%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 11,75</t>
+          <t>-11,9; 14,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 8,84</t>
+          <t>-15,76; 8,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 6,95</t>
+          <t>-10,15; 7,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 4,09</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 3,33</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 2,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9,86; 8,47</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 7,7</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 5,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1887771449705089</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.755284061596416</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.597935568768878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,35; 12,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 16,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,8; 10,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.44361554333802</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.323070754230717</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.272587405525231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,74%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.4266290053619</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.12215326072581</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.43701026157353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-34,79; 31,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,22; 39,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,81; 24,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.003980036054219305</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.09858026730450548</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.05427809021730801</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.3016210535736071</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1345460391056928</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1340206670430565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 9,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,59; 8,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 6,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.3749496879139879</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.4304848778674175</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2879544137155017</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.5803439643832453</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6117180162981739</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6338964416710169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-15,95; 20,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-14,79; 19,9</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 14,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.051256099169445</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.073852491771074</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.278738632490144</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.747976204617235</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.223788885202922</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.399688860257665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 11,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,01; 10,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 7,54</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.01113376926934366</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.01314199206851081</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01288287599150545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.156148576984606</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.150637458285085</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1036952490204982</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-15,83; 32,29</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-17,68; 28,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,76; 19,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2141078101629042</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1898467980140955</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1396926290857811</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.5235052981578947</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.28468365376353</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.994049527723706</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,22; 6,74</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 3,7</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 3,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.326436360636542</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.683657287402926</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.746635252719178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-4,22%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,85%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.25671084013618</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.18175493752683</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.327996247087936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-11,9; 14,47</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-15,76; 8,55</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 7,39</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.0121964097925723</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.03227205986082115</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.02410078742585491</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1947609484008495</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.170321888960564</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1293951059507471</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 4,09</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 3,33</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 2,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2767242727212662</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2925276727289087</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1926550121707894</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,66%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,21%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,44%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.2558392900509854</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.67666073880095</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.028276450464077</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-9,86; 8,47</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 7,7</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 5,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.304409546813962</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.728723912568887</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.263022107672485</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.546819259069306</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.160628410398011</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.056258579712818</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.005309892548800075</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.03770750878925667</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.02225295975227551</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.120193524025109</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.07466697103554491</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.06633446690270851</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1435850817462234</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1744400609676302</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1141549545869682</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
